--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77752154-BEEA-2A42-913B-8B0852097FEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5A326-9505-B341-A1C1-BD1440F21089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="10520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -3743,7 +3743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>470</v>
       </c>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5A326-9505-B341-A1C1-BD1440F21089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C96AE4-B33B-2842-BAC7-F6B9C42F1797}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="487">
   <si>
     <t>description</t>
   </si>
@@ -1533,9 +1533,6 @@
 1. combine command names and urls into CSV
 2. transpose so that we have a CSV of name and url columns
 3. convert to JSON array</t>
-  </si>
-  <si>
-    <t>(empty)</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3833,9 +3830,7 @@
       <c r="E3" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>487</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD77C9-3B50-C74F-94B2-5F53AD16CEAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0CBD77C9-3B50-C74F-94B2-5F53AD16CEAB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="macros" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="macros" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1693,12 +1693,19 @@
   <si>
     <t>Contain a list of matched files</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1752,8 +1759,210 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,8 +1975,348 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1790,90 +2339,750 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="11" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="14" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="20" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="23" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="32" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="56" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="56" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1903,10 +3112,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1941,7 +3150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1976,7 +3185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2070,21 +3279,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2101,7 +3310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2153,24 +3362,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD127"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2259,7 +3468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -2348,7 +3557,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -2431,7 +3640,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -2511,7 +3720,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +3788,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2641,7 +3850,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2697,7 +3906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2750,7 +3959,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +4003,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -2832,7 +4041,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2867,7 +4076,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -2902,7 +4111,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2937,7 +4146,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -2972,7 +4181,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -3004,7 +4213,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3036,7 +4245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -3059,7 +4268,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3079,7 +4288,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>382</v>
       </c>
@@ -3099,7 +4308,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -3119,7 +4328,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>399</v>
       </c>
@@ -3139,7 +4348,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -3156,7 +4365,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>383</v>
       </c>
@@ -3173,7 +4382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3190,7 +4399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3207,7 +4416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3224,7 +4433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3241,7 +4450,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>400</v>
       </c>
@@ -3258,7 +4467,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -3272,7 +4481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="E30" t="s">
         <v>55</v>
       </c>
@@ -3283,7 +4492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>56</v>
       </c>
@@ -3294,7 +4503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>57</v>
       </c>
@@ -3305,7 +4514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>58</v>
       </c>
@@ -3316,7 +4525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>59</v>
       </c>
@@ -3327,7 +4536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>60</v>
       </c>
@@ -3338,7 +4547,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>61</v>
       </c>
@@ -3349,7 +4558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>62</v>
       </c>
@@ -3360,7 +4569,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="G38" t="s">
         <v>296</v>
       </c>
@@ -3368,7 +4577,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>255</v>
       </c>
@@ -3376,7 +4585,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>69</v>
       </c>
@@ -3384,7 +4593,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>201</v>
       </c>
@@ -3392,7 +4601,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>277</v>
       </c>
@@ -3400,7 +4609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>288</v>
       </c>
@@ -3408,7 +4617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>289</v>
       </c>
@@ -3416,7 +4625,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>331</v>
       </c>
@@ -3424,7 +4633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>330</v>
       </c>
@@ -3432,7 +4641,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>200</v>
       </c>
@@ -3440,7 +4649,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>308</v>
       </c>
@@ -3448,7 +4657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>327</v>
       </c>
@@ -3456,7 +4665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>356</v>
       </c>
@@ -3464,7 +4673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>290</v>
       </c>
@@ -3472,7 +4681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>344</v>
       </c>
@@ -3480,7 +4689,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>319</v>
       </c>
@@ -3488,7 +4697,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>256</v>
       </c>
@@ -3496,7 +4705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>280</v>
       </c>
@@ -3504,7 +4713,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>281</v>
       </c>
@@ -3512,7 +4721,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>282</v>
       </c>
@@ -3520,7 +4729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>291</v>
       </c>
@@ -3528,7 +4737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>300</v>
       </c>
@@ -3536,7 +4745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>325</v>
       </c>
@@ -3544,7 +4753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>297</v>
       </c>
@@ -3552,7 +4761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>298</v>
       </c>
@@ -3560,7 +4769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>357</v>
       </c>
@@ -3568,7 +4777,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>358</v>
       </c>
@@ -3576,7 +4785,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>333</v>
       </c>
@@ -3584,7 +4793,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>301</v>
       </c>
@@ -3592,7 +4801,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>257</v>
       </c>
@@ -3600,7 +4809,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>341</v>
       </c>
@@ -3608,7 +4817,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>302</v>
       </c>
@@ -3616,7 +4825,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>396</v>
       </c>
@@ -3624,7 +4833,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>292</v>
       </c>
@@ -3632,7 +4841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>397</v>
       </c>
@@ -3640,7 +4849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>250</v>
       </c>
@@ -3648,7 +4857,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>509</v>
       </c>
@@ -3656,7 +4865,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>332</v>
       </c>
@@ -3664,7 +4873,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>268</v>
       </c>
@@ -3672,7 +4881,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>274</v>
       </c>
@@ -3680,7 +4889,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>279</v>
       </c>
@@ -3688,7 +4897,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>415</v>
       </c>
@@ -3696,7 +4905,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>320</v>
       </c>
@@ -3704,7 +4913,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>258</v>
       </c>
@@ -3712,7 +4921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>269</v>
       </c>
@@ -3720,7 +4929,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>275</v>
       </c>
@@ -3728,7 +4937,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>264</v>
       </c>
@@ -3736,7 +4945,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>259</v>
       </c>
@@ -3744,7 +4953,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>276</v>
       </c>
@@ -3752,7 +4961,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>260</v>
       </c>
@@ -3760,7 +4969,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>261</v>
       </c>
@@ -3768,7 +4977,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>293</v>
       </c>
@@ -3776,7 +4985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>299</v>
       </c>
@@ -3784,7 +4993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>283</v>
       </c>
@@ -3792,7 +5001,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>328</v>
       </c>
@@ -3800,7 +5009,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>265</v>
       </c>
@@ -3808,7 +5017,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>266</v>
       </c>
@@ -3816,191 +5025,201 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="X95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="X96" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="X97" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="X98" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="X99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="X100" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="X101" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="X102" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="X104" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X123" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X124" t="s">
+    <row r="126">
+      <c r="X126" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X125" t="s">
+    <row r="127">
+      <c r="X127" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
+      <selection activeCell="B22" pane="bottomLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.33203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="16" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="18.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="53.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="25.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="66.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="16.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -4036,7 +5255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="35" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>468</v>
       </c>
@@ -4058,7 +5277,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>483</v>
@@ -4080,7 +5299,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>469</v>
@@ -4102,7 +5321,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>471</v>
@@ -4126,7 +5345,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>474</v>
@@ -4155,7 +5374,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row ht="96" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>484</v>
@@ -4179,7 +5398,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>478</v>
@@ -4199,7 +5418,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>510</v>
       </c>
@@ -4221,7 +5440,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>512</v>
@@ -4243,7 +5462,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
@@ -4265,7 +5484,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row ht="176" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>517</v>
@@ -4289,7 +5508,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>519</v>
       </c>
@@ -4311,7 +5530,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>512</v>
@@ -4333,7 +5552,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11" t="s">
@@ -4355,7 +5574,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>522</v>
@@ -4379,7 +5598,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>524</v>
       </c>
@@ -4401,7 +5620,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>526</v>
@@ -4423,7 +5642,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>528</v>
@@ -4445,7 +5664,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11" t="s">
@@ -4469,7 +5688,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>535</v>
@@ -4493,7 +5712,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11" t="s">
@@ -4513,7 +5732,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4527,7 +5746,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -4541,7 +5760,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4555,7 +5774,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
@@ -4569,7 +5788,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4583,7 +5802,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4597,7 +5816,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4611,7 +5830,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4625,7 +5844,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4639,7 +5858,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4653,7 +5872,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4667,7 +5886,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4681,7 +5900,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4695,7 +5914,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4709,7 +5928,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4723,7 +5942,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4737,7 +5956,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4751,7 +5970,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4765,7 +5984,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4779,7 +5998,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4793,7 +6012,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4807,7 +6026,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4821,7 +6040,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4835,7 +6054,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4849,7 +6068,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4863,7 +6082,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4877,7 +6096,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4891,7 +6110,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4905,7 +6124,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4919,7 +6138,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4933,7 +6152,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4947,7 +6166,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4961,7 +6180,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4975,7 +6194,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4989,7 +6208,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -5003,7 +6222,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -5017,7 +6236,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -5031,7 +6250,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -5045,7 +6264,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -5059,7 +6278,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -5073,7 +6292,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -5087,7 +6306,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -5101,7 +6320,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -5115,7 +6334,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -5129,7 +6348,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -5143,7 +6362,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -5157,7 +6376,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -5171,7 +6390,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -5185,7 +6404,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -5199,7 +6418,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -5213,7 +6432,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -5227,7 +6446,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -5241,7 +6460,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -5255,7 +6474,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -5269,7 +6488,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -5283,7 +6502,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -5297,7 +6516,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -5311,7 +6530,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -5325,7 +6544,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -5339,7 +6558,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -5353,7 +6572,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -5367,7 +6586,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -5381,7 +6600,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -5395,7 +6614,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -5409,7 +6628,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -5423,7 +6642,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -5437,7 +6656,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -5451,7 +6670,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -5465,7 +6684,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5479,7 +6698,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5493,7 +6712,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5507,7 +6726,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5521,7 +6740,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5535,7 +6754,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5549,7 +6768,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5563,7 +6782,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5577,7 +6796,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5591,7 +6810,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5605,7 +6824,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5619,7 +6838,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5633,7 +6852,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5647,7 +6866,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5661,7 +6880,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5675,7 +6894,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5689,7 +6908,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5703,7 +6922,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5717,7 +6936,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5731,7 +6950,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5745,7 +6964,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5759,7 +6978,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5773,7 +6992,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5787,7 +7006,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5801,7 +7020,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5815,7 +7034,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5829,7 +7048,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5843,7 +7062,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5857,7 +7076,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5871,7 +7090,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5885,7 +7104,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5899,7 +7118,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5913,7 +7132,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5927,7 +7146,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5941,7 +7160,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5955,7 +7174,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5969,7 +7188,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5983,7 +7202,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5997,7 +7216,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -6011,7 +7230,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -6025,7 +7244,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -6039,7 +7258,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -6053,7 +7272,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -6067,7 +7286,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -6081,7 +7300,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -6095,7 +7314,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -6109,7 +7328,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -6123,7 +7342,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -6137,7 +7356,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -6151,7 +7370,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -6165,7 +7384,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -6179,7 +7398,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -6193,7 +7412,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -6207,7 +7426,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -6221,7 +7440,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -6235,7 +7454,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -6249,7 +7468,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -6263,7 +7482,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -6277,7 +7496,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -6291,7 +7510,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -6305,7 +7524,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -6319,7 +7538,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -6333,7 +7552,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -6347,7 +7566,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -6361,7 +7580,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -6375,7 +7594,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -6389,7 +7608,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -6403,7 +7622,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -6417,7 +7636,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -6431,7 +7650,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -6445,7 +7664,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -6459,7 +7678,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -6473,7 +7692,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -6487,7 +7706,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -6501,7 +7720,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -6515,7 +7734,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6529,7 +7748,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6543,7 +7762,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6557,7 +7776,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6571,7 +7790,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6585,7 +7804,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6599,7 +7818,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6613,7 +7832,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6627,7 +7846,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6641,7 +7860,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6655,7 +7874,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6669,7 +7888,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6683,7 +7902,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6697,7 +7916,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6711,7 +7930,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6725,7 +7944,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6739,7 +7958,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6753,7 +7972,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6767,7 +7986,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6781,7 +8000,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6795,7 +8014,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6809,7 +8028,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6823,7 +8042,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6837,7 +8056,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6851,7 +8070,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6865,7 +8084,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6879,7 +8098,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6893,7 +8112,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6907,7 +8126,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6921,7 +8140,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6935,7 +8154,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="19"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6949,7 +8168,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="19"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6963,7 +8182,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="19"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6977,7 +8196,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="19"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6991,7 +8210,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="19"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -7005,7 +8224,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="19"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -7019,7 +8238,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="19"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -7033,7 +8252,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="19"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -7047,7 +8266,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="19"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -7061,7 +8280,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="19"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -7075,7 +8294,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -7089,7 +8308,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="19"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -7103,7 +8322,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="19"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -7117,7 +8336,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="19"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -7131,7 +8350,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="19"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -7145,7 +8364,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="19"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -7159,7 +8378,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="19"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -7173,7 +8392,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="19"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -7187,7 +8406,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="19"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -7201,7 +8420,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="19"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -7215,7 +8434,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="19"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -7229,7 +8448,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="19"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -7243,7 +8462,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="19"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -7257,7 +8476,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="19"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -7271,7 +8490,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="19"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -7285,7 +8504,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="19"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -7299,7 +8518,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="19"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -7313,7 +8532,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="19"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -7327,7 +8546,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="19"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -7341,7 +8560,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="19"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -7355,7 +8574,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="19"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -7369,7 +8588,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="19"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -7383,7 +8602,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="19"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -7397,7 +8616,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="19"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -7411,7 +8630,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="19"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -7425,7 +8644,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="19"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -7439,7 +8658,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="19"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -7453,7 +8672,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="19"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -7467,7 +8686,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="19"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -7481,7 +8700,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="19"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -7495,7 +8714,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="19"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -7509,7 +8728,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="19"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -7523,7 +8742,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="19"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -7537,7 +8756,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="19"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7551,7 +8770,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="19"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7565,7 +8784,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="19"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7579,7 +8798,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="19"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7593,7 +8812,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="19"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7607,7 +8826,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="19"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7621,7 +8840,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="19"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7635,7 +8854,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="19"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7649,7 +8868,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="19"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7663,7 +8882,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="19"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7677,7 +8896,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="19"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7691,7 +8910,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="19"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7705,7 +8924,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="19"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7719,7 +8938,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="19"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7733,7 +8952,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="19"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7747,7 +8966,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="19"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7761,7 +8980,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="19"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7775,7 +8994,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="19"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7789,7 +9008,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="19"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7803,7 +9022,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="19"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7817,7 +9036,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="19"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7831,7 +9050,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="19"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7845,7 +9064,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="19"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -7859,7 +9078,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="19"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -7873,7 +9092,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="19"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -7887,7 +9106,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="19"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7901,7 +9120,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="19"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7915,7 +9134,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7929,7 +9148,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="19"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7943,7 +9162,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="19"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7957,7 +9176,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="19"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7971,7 +9190,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="19"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7985,7 +9204,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="19"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7999,7 +9218,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="19"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -8013,7 +9232,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -8027,7 +9246,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="19"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -8041,7 +9260,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="19"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -8055,7 +9274,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="19"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -8069,7 +9288,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="19"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -8083,7 +9302,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="19"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -8097,7 +9316,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="19"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -8111,7 +9330,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -8125,7 +9344,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="19"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -8139,7 +9358,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="19"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -8153,7 +9372,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="19"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -8167,7 +9386,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -8181,7 +9400,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="19"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -8195,7 +9414,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="19"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -8209,7 +9428,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -8223,7 +9442,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="19"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -8237,7 +9456,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="19"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -8251,7 +9470,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="19"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -8265,7 +9484,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="19"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -8279,7 +9498,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="19"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -8293,7 +9512,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="19"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -8307,7 +9526,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -8321,7 +9540,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="19"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -8335,7 +9554,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="19"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -8349,7 +9568,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="19"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -8363,7 +9582,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="19"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -8377,7 +9596,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="19"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -8391,7 +9610,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="19"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -8405,7 +9624,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -8419,7 +9638,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="19"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -8433,7 +9652,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="19"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -8447,7 +9666,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="19"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -8461,7 +9680,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -8475,7 +9694,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="19"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -8489,7 +9708,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -8503,7 +9722,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="19"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -8517,7 +9736,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="19"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -8531,7 +9750,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="19"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -8545,7 +9764,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="19"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8559,7 +9778,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="19"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8573,7 +9792,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="19"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8587,7 +9806,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="19"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8601,7 +9820,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="19"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8615,7 +9834,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="19"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8629,7 +9848,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="19"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8643,7 +9862,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="19"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8657,7 +9876,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="19"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8671,7 +9890,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="19"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8685,7 +9904,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="19"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8699,7 +9918,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="19"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8713,7 +9932,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="19"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8727,7 +9946,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="19"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8741,7 +9960,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="19"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8755,7 +9974,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="19"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8769,7 +9988,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="19"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8783,7 +10002,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="19"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8797,7 +10016,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="19"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8811,7 +10030,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="19"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8825,7 +10044,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="19"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8839,7 +10058,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="19"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -8853,7 +10072,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="19"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -8867,7 +10086,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="19"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -8881,7 +10100,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="19"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8895,7 +10114,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="19"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8909,7 +10128,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="19"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8923,7 +10142,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8937,7 +10156,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8951,7 +10170,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8965,7 +10184,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8979,7 +10198,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8993,7 +10212,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -9007,7 +10226,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -9021,7 +10240,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -9035,7 +10254,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="19"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -9049,7 +10268,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="19"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -9063,7 +10282,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="19"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -9077,7 +10296,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="19"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -9091,7 +10310,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="19"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -9105,7 +10324,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="19"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -9119,7 +10338,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="19"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -9133,7 +10352,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="19"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -9147,7 +10366,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="19"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -9161,7 +10380,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="19"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -9175,7 +10394,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="19"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -9189,7 +10408,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="19"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -9203,7 +10422,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="19"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -9217,7 +10436,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="19"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -9231,7 +10450,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="19"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -9245,7 +10464,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="19"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -9259,7 +10478,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="19"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -9273,7 +10492,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="19"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -9287,7 +10506,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="19"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -9301,7 +10520,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="19"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -9315,7 +10534,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="19"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -9329,7 +10548,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="19"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -9343,7 +10562,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="19"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -9357,7 +10576,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="19"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -9371,7 +10590,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="19"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -9385,7 +10604,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="19"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -9399,7 +10618,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="19"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -9413,7 +10632,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="19"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -9427,7 +10646,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="19"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -9441,7 +10660,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="19"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -9455,7 +10674,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="19"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -9469,7 +10688,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="19"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -9483,7 +10702,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="19"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -9497,7 +10716,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="19"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -9511,7 +10730,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="19"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -9525,7 +10744,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="19"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -9539,7 +10758,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="19"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9553,7 +10772,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="19"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9567,7 +10786,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="19"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9581,7 +10800,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="19"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9595,7 +10814,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="19"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9609,7 +10828,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="19"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9623,7 +10842,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="19"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9637,7 +10856,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="19"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9651,7 +10870,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="19"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9665,7 +10884,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="19"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9679,7 +10898,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="19"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9693,7 +10912,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="19"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9707,7 +10926,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="19"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9721,7 +10940,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="19"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9735,7 +10954,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="19"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9749,7 +10968,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="19"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9763,7 +10982,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="19"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9777,7 +10996,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="19"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9791,7 +11010,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="19"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9805,7 +11024,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="19"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9819,7 +11038,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="19"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9833,7 +11052,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="19"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -9847,7 +11066,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="19"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -9861,7 +11080,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="19"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -9875,7 +11094,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="19"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -9889,7 +11108,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="19"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9903,7 +11122,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="19"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9917,7 +11136,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="19"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9931,7 +11150,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="19"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9945,7 +11164,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="19"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9959,7 +11178,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="19"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9973,7 +11192,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="19"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9987,7 +11206,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="19"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -10001,7 +11220,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="19"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -10015,7 +11234,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="19"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -10029,7 +11248,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="19"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -10043,7 +11262,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="19"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -10057,7 +11276,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="19"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -10071,7 +11290,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="19"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -10085,7 +11304,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="19"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -10099,7 +11318,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="19"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -10113,7 +11332,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="19"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -10127,7 +11346,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="19"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -10141,7 +11360,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="19"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -10155,7 +11374,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="19"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -10169,7 +11388,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="19"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -10183,7 +11402,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="19"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -10197,7 +11416,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="19"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -10211,7 +11430,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="19"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -10225,7 +11444,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="19"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -10239,7 +11458,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="19"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -10253,7 +11472,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="19"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -10267,7 +11486,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="19"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -10281,7 +11500,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="19"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -10295,7 +11514,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="19"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -10309,7 +11528,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="19"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -10323,7 +11542,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="19"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -10337,7 +11556,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="19"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -10351,7 +11570,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="19"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -10365,7 +11584,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="19"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -10379,7 +11598,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="19"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -10393,7 +11612,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="19"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -10407,7 +11626,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="19"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -10421,7 +11640,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="19"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -10435,7 +11654,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="19"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -10449,7 +11668,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="19"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -10463,7 +11682,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="19"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -10477,7 +11696,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="19"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -10491,7 +11710,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="19"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -10505,7 +11724,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="19"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -10519,7 +11738,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="19"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -10533,7 +11752,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="19"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -10547,7 +11766,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="19"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10561,7 +11780,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="19"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10575,7 +11794,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="19"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10589,7 +11808,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="19"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10603,7 +11822,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="19"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10617,7 +11836,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="19"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10631,7 +11850,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="19"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10645,7 +11864,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="19"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10659,7 +11878,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="19"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10673,7 +11892,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="19"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10687,7 +11906,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="19"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10701,7 +11920,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="19"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10715,7 +11934,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="19"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10729,7 +11948,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="19"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10743,7 +11962,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="19"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10757,7 +11976,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="19"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10771,7 +11990,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="19"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10785,7 +12004,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="19"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10799,7 +12018,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="19"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10813,7 +12032,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="19"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10827,7 +12046,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="19"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10841,7 +12060,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="19"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -10855,7 +12074,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="19"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -10869,7 +12088,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="19"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -10883,7 +12102,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="19"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10897,7 +12116,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="19"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10911,7 +12130,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="19"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10925,7 +12144,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="19"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10939,7 +12158,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="19"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10953,7 +12172,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="19"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10967,7 +12186,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="19"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10981,7 +12200,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="19"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10995,7 +12214,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="19"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -11009,7 +12228,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="19"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -11023,7 +12242,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="19"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -11037,7 +12256,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="19"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -11051,7 +12270,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="19"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -11065,7 +12284,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="19"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -11079,7 +12298,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="19"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -11093,7 +12312,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="19"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -11107,7 +12326,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="19"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -11121,7 +12340,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="19"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -11135,7 +12354,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="19"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -11149,7 +12368,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="19"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -11163,7 +12382,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="19"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -11177,7 +12396,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="19"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -11191,7 +12410,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="19"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -11205,7 +12424,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="19"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -11219,7 +12438,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="19"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -11233,7 +12452,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="19"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -11247,7 +12466,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="19"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -11261,7 +12480,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="19"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -11275,7 +12494,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="19"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -11289,7 +12508,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="19"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -11303,7 +12522,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="19"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -11317,7 +12536,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="19"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -11331,7 +12550,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="19"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -11345,7 +12564,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="19"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -11359,7 +12578,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="19"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -11373,7 +12592,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="19"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -11387,7 +12606,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="19"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -11401,7 +12620,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="19"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -11415,7 +12634,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="19"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -11429,7 +12648,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="19"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -11443,7 +12662,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="19"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -11457,7 +12676,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="19"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -11471,7 +12690,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="19"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -11485,7 +12704,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="19"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -11499,7 +12718,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="19"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -11513,7 +12732,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="19"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -11527,7 +12746,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="19"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -11541,7 +12760,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="19"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11555,7 +12774,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="19"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11569,7 +12788,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="19"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11583,7 +12802,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="19"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11597,7 +12816,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="19"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11611,7 +12830,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="19"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11625,7 +12844,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="19"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11639,7 +12858,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="19"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11653,7 +12872,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="19"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11667,7 +12886,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="19"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11681,7 +12900,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="19"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11695,7 +12914,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="19"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11709,7 +12928,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="19"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11723,7 +12942,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="19"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11737,7 +12956,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="19"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11751,7 +12970,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="19"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11765,7 +12984,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="19"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11779,7 +12998,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="19"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11793,7 +13012,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="19"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11807,7 +13026,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="19"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11821,7 +13040,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="19"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11835,7 +13054,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="19"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -11849,7 +13068,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="19"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -11863,7 +13082,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="19"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -11877,7 +13096,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="19"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11891,7 +13110,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="19"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11905,7 +13124,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="19"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11919,7 +13138,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="19"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11933,7 +13152,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="19"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11947,7 +13166,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="19"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11961,7 +13180,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="19"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11975,7 +13194,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="19"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11989,7 +13208,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="19"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -12003,7 +13222,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="19"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -12017,7 +13236,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="19"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -12031,7 +13250,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="19"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -12045,7 +13264,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="19"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -12059,7 +13278,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="19"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -12073,7 +13292,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="19"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -12087,7 +13306,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="19"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -12101,7 +13320,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="19"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -12115,7 +13334,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="19"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -12129,7 +13348,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="19"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -12143,7 +13362,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="19"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -12157,7 +13376,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="19"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -12171,7 +13390,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="19"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -12185,7 +13404,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="19"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -12199,7 +13418,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="19"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -12213,7 +13432,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="19"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -12227,7 +13446,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="19"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -12241,7 +13460,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="19"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -12255,7 +13474,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="19"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -12269,7 +13488,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="19"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -12283,7 +13502,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="19"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -12297,7 +13516,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="19"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -12311,7 +13530,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="19"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -12325,7 +13544,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="19"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -12339,7 +13558,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="19"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -12353,7 +13572,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="19"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -12367,7 +13586,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="19"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -12381,7 +13600,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="19"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -12395,7 +13614,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="19"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -12409,7 +13628,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="19"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -12423,7 +13642,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="19"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -12437,7 +13656,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="19"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -12451,7 +13670,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="19"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -12465,7 +13684,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="19"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -12479,7 +13698,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="19"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -12493,7 +13712,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="19"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -12507,7 +13726,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="19"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -12521,7 +13740,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="19"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -12535,7 +13754,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="19"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12549,7 +13768,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="19"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12563,7 +13782,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="19"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12577,7 +13796,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="19"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12591,7 +13810,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="19"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12605,7 +13824,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="19"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12619,7 +13838,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="19"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12633,7 +13852,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="19"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12647,7 +13866,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="19"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12661,7 +13880,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="19"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12675,7 +13894,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="19"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12689,7 +13908,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="19"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12703,7 +13922,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="19"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12717,7 +13936,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="19"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12731,7 +13950,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="19"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12745,7 +13964,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="19"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12759,7 +13978,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="19"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12773,7 +13992,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="19"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12787,7 +14006,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="19"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12801,7 +14020,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="19"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12815,7 +14034,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="19"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12829,7 +14048,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="19"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12843,7 +14062,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="19"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -12857,7 +14076,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="19"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -12871,7 +14090,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="19"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -12885,7 +14104,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="19"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12899,7 +14118,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="19"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12913,7 +14132,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="19"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12927,7 +14146,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="19"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12941,7 +14160,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="19"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12955,7 +14174,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="19"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12969,7 +14188,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="19"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12983,7 +14202,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="19"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12997,7 +14216,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="19"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -13011,7 +14230,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="19"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -13025,7 +14244,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="19"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -13039,7 +14258,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="19"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -13053,7 +14272,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="19"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -13067,7 +14286,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="19"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -13081,7 +14300,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="19"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -13095,7 +14314,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="19"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -13109,7 +14328,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="19"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -13123,7 +14342,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="19"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -13137,7 +14356,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="19"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -13151,7 +14370,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="19"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -13165,7 +14384,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="19"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -13179,7 +14398,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="19"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -13193,7 +14412,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="19"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -13207,7 +14426,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="19"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -13221,7 +14440,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="19"/>
       <c r="B645" s="4"/>
       <c r="C645" s="11"/>
@@ -13235,7 +14454,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="13"/>
     </row>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="19"/>
       <c r="B646" s="4"/>
       <c r="C646" s="11"/>
@@ -13249,369 +14468,369 @@
       <c r="K646" s="2"/>
       <c r="L646" s="13"/>
     </row>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -26,26 +26,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1699,13 +1700,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1961,8 +1983,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="63">
+  <fills count="123">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2315,8 +2539,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -2903,13 +3467,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3027,52 +4155,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="32" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="35" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="38" fontId="26" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="41" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="44" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="50" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="53" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="56" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="56" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="56" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="56" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="62" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="65" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="68" fontId="42" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="71" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="74" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="80" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="83" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="86" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="86" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="74" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="89" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="74" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="95" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="98" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="101" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="104" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="110" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="113" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3370,7 +4594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -3420,51 +4644,54 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
         <v>243</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>185</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>227</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>382</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>399</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>345</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>383</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>400</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3509,51 +4736,54 @@
         <v>421</v>
       </c>
       <c r="N2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O2" t="s">
         <v>464</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>403</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>241</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>206</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>384</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>405</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>369</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>393</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>160</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>165</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>418</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -3598,45 +4828,48 @@
         <v>77</v>
       </c>
       <c r="N3" t="s">
+        <v>540</v>
+      </c>
+      <c r="O3" t="s">
         <v>465</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>417</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>228</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>207</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>385</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>370</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>394</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>161</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>166</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>352</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3678,45 +4911,48 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O4" t="s">
         <v>466</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>229</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>208</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>386</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>408</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>346</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>395</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>342</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>162</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>167</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>173</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>410</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3751,40 +4987,43 @@
       <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>230</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>209</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>387</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>409</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>347</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>343</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>163</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>168</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>174</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>411</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3816,37 +5055,40 @@
       <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q6" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>231</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>379</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>388</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>349</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>431</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>169</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>175</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>412</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3872,37 +5114,40 @@
       <c r="M7" t="s">
         <v>303</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>232</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>389</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>348</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>432</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>170</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>176</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>413</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3928,34 +5173,34 @@
       <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>233</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>390</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>350</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>164</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>177</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>414</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3981,25 +5226,25 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>234</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>391</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>351</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>198</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4022,22 +5267,22 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>423</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>235</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>392</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>245</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>179</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4060,19 +5305,19 @@
       <c r="M11" t="s">
         <v>457</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>236</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>246</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>247</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4095,19 +5340,19 @@
       <c r="M12" t="s">
         <v>422</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>237</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>92</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>180</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4130,25 +5375,25 @@
       <c r="M13" t="s">
         <v>458</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>242</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>314</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>181</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>538</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -4165,25 +5410,25 @@
       <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>238</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>93</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>182</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -4197,25 +5442,25 @@
       <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>491</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>239</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>94</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>183</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
         <v>373</v>
@@ -4229,25 +5474,25 @@
       <c r="M16" t="s">
         <v>35</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>492</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>184</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>374</v>
@@ -4258,19 +5503,19 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>493</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>453</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
         <v>401</v>
@@ -4281,16 +5526,16 @@
       <c r="K18" t="s">
         <v>449</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>95</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -4301,16 +5546,16 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>96</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -4321,16 +5566,16 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>97</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -4341,16 +5586,16 @@
       <c r="K21" t="s">
         <v>368</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>98</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="E22" t="s">
         <v>309</v>
@@ -4361,13 +5606,13 @@
       <c r="K22" t="s">
         <v>456</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="E23" t="s">
         <v>54</v>
@@ -4378,13 +5623,13 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="E24" t="s">
         <v>435</v>
@@ -4395,13 +5640,13 @@
       <c r="K24" t="s">
         <v>380</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>213</v>
@@ -4412,13 +5657,13 @@
       <c r="K25" t="s">
         <v>76</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>214</v>
@@ -4429,13 +5674,13 @@
       <c r="K26" t="s">
         <v>420</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>454</v>
@@ -4446,13 +5691,13 @@
       <c r="K27" t="s">
         <v>37</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>455</v>
@@ -4463,13 +5708,13 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
         <v>402</v>
@@ -4477,18 +5722,21 @@
       <c r="G29" t="s">
         <v>272</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>215</v>
+      </c>
       <c r="E30" t="s">
         <v>55</v>
       </c>
       <c r="G30" t="s">
         <v>205</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4499,7 +5747,7 @@
       <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4510,7 +5758,7 @@
       <c r="G32" t="s">
         <v>273</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4521,7 +5769,7 @@
       <c r="G33" t="s">
         <v>508</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4532,7 +5780,7 @@
       <c r="G34" t="s">
         <v>248</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4543,7 +5791,7 @@
       <c r="G35" t="s">
         <v>318</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4554,7 +5802,7 @@
       <c r="G36" t="s">
         <v>295</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4565,7 +5813,7 @@
       <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4573,7 +5821,7 @@
       <c r="G38" t="s">
         <v>296</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4581,7 +5829,7 @@
       <c r="G39" t="s">
         <v>255</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4589,7 +5837,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4597,7 +5845,7 @@
       <c r="G41" t="s">
         <v>201</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4605,7 +5853,7 @@
       <c r="G42" t="s">
         <v>277</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4613,7 +5861,7 @@
       <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4621,7 +5869,7 @@
       <c r="G44" t="s">
         <v>289</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4629,7 +5877,7 @@
       <c r="G45" t="s">
         <v>331</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4637,7 +5885,7 @@
       <c r="G46" t="s">
         <v>330</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4645,7 +5893,7 @@
       <c r="G47" t="s">
         <v>200</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4653,7 +5901,7 @@
       <c r="G48" t="s">
         <v>308</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4661,7 +5909,7 @@
       <c r="G49" t="s">
         <v>327</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4669,7 +5917,7 @@
       <c r="G50" t="s">
         <v>356</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4677,7 +5925,7 @@
       <c r="G51" t="s">
         <v>290</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4685,7 +5933,7 @@
       <c r="G52" t="s">
         <v>344</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4693,7 +5941,7 @@
       <c r="G53" t="s">
         <v>319</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>450</v>
       </c>
     </row>
@@ -4701,7 +5949,7 @@
       <c r="G54" t="s">
         <v>256</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4709,7 +5957,7 @@
       <c r="G55" t="s">
         <v>280</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4717,7 +5965,7 @@
       <c r="G56" t="s">
         <v>281</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4725,7 +5973,7 @@
       <c r="G57" t="s">
         <v>282</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4733,7 +5981,7 @@
       <c r="G58" t="s">
         <v>291</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4741,7 +5989,7 @@
       <c r="G59" t="s">
         <v>300</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4749,7 +5997,7 @@
       <c r="G60" t="s">
         <v>325</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4757,7 +6005,7 @@
       <c r="G61" t="s">
         <v>297</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4765,7 +6013,7 @@
       <c r="G62" t="s">
         <v>298</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4773,7 +6021,7 @@
       <c r="G63" t="s">
         <v>357</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4781,7 +6029,7 @@
       <c r="G64" t="s">
         <v>358</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4789,7 +6037,7 @@
       <c r="G65" t="s">
         <v>333</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4797,7 +6045,7 @@
       <c r="G66" t="s">
         <v>301</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4805,7 +6053,7 @@
       <c r="G67" t="s">
         <v>257</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4813,7 +6061,7 @@
       <c r="G68" t="s">
         <v>341</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4821,7 +6069,7 @@
       <c r="G69" t="s">
         <v>302</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4829,7 +6077,7 @@
       <c r="G70" t="s">
         <v>396</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4837,7 +6085,7 @@
       <c r="G71" t="s">
         <v>292</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4845,7 +6093,7 @@
       <c r="G72" t="s">
         <v>397</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4853,7 +6101,7 @@
       <c r="G73" t="s">
         <v>250</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4861,7 +6109,7 @@
       <c r="G74" t="s">
         <v>509</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4869,7 +6117,7 @@
       <c r="G75" t="s">
         <v>332</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4877,7 +6125,7 @@
       <c r="G76" t="s">
         <v>268</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4885,7 +6133,7 @@
       <c r="G77" t="s">
         <v>274</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4893,7 +6141,7 @@
       <c r="G78" t="s">
         <v>279</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4901,7 +6149,7 @@
       <c r="G79" t="s">
         <v>415</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4909,7 +6157,7 @@
       <c r="G80" t="s">
         <v>320</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4917,7 +6165,7 @@
       <c r="G81" t="s">
         <v>258</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4925,7 +6173,7 @@
       <c r="G82" t="s">
         <v>269</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4933,7 +6181,7 @@
       <c r="G83" t="s">
         <v>275</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4941,7 +6189,7 @@
       <c r="G84" t="s">
         <v>264</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4949,7 +6197,7 @@
       <c r="G85" t="s">
         <v>259</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4957,7 +6205,7 @@
       <c r="G86" t="s">
         <v>276</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4965,7 +6213,7 @@
       <c r="G87" t="s">
         <v>260</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4973,7 +6221,7 @@
       <c r="G88" t="s">
         <v>261</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4981,7 +6229,7 @@
       <c r="G89" t="s">
         <v>293</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4989,7 +6237,7 @@
       <c r="G90" t="s">
         <v>299</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4997,7 +6245,7 @@
       <c r="G91" t="s">
         <v>283</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5005,7 +6253,7 @@
       <c r="G92" t="s">
         <v>328</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5013,7 +6261,7 @@
       <c r="G93" t="s">
         <v>265</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5021,172 +6269,172 @@
       <c r="G94" t="s">
         <v>266</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -23,7 +23,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1721,13 +1721,34 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="152" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2185,8 +2206,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="123">
+  <fills count="273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2879,8 +3405,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="114">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -4031,13 +5407,1423 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4251,52 +7037,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="95" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="95" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="98" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="98" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="101" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="101" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="104" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="104" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="110" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="110" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="113" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="113" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="116" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="116" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="104" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="119" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="104" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="125" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="128" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="131" fontId="75" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="134" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="140" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="143" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="146" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="146" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="155" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="158" fontId="90" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="161" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="164" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="170" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="173" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="176" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="176" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="182" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="185" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="188" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="191" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="194" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="200" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="203" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="206" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="206" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="194" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="194" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="212" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="215" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="218" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="221" fontId="123" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="224" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="227" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="230" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="233" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="236" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="236" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="224" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="239" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="224" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="245" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="248" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="251" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="254" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="260" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="263" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="266" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="266" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4988,7 +8014,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
@@ -5056,7 +8082,7 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -5115,7 +8141,7 @@
         <v>303</v>
       </c>
       <c r="N7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Q7" t="s">
         <v>25</v>
@@ -5173,6 +8199,9 @@
       <c r="M8" t="s">
         <v>26</v>
       </c>
+      <c r="N8" t="s">
+        <v>547</v>
+      </c>
       <c r="Q8" t="s">
         <v>82</v>
       </c>
@@ -5226,6 +8255,9 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
+      <c r="N9" t="s">
+        <v>550</v>
+      </c>
       <c r="Q9" t="s">
         <v>83</v>
       </c>
@@ -5267,6 +8299,9 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
+      <c r="N10" t="s">
+        <v>542</v>
+      </c>
       <c r="Q10" t="s">
         <v>423</v>
       </c>
@@ -5305,6 +8340,9 @@
       <c r="M11" t="s">
         <v>457</v>
       </c>
+      <c r="N11" t="s">
+        <v>543</v>
+      </c>
       <c r="Q11" t="s">
         <v>84</v>
       </c>
@@ -5340,6 +8378,9 @@
       <c r="M12" t="s">
         <v>422</v>
       </c>
+      <c r="N12" t="s">
+        <v>544</v>
+      </c>
       <c r="Q12" t="s">
         <v>33</v>
       </c>
@@ -5655,7 +8696,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>548</v>
       </c>
       <c r="Y25" t="s">
         <v>101</v>
@@ -5672,7 +8713,7 @@
         <v>270</v>
       </c>
       <c r="K26" t="s">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
         <v>102</v>
@@ -5689,7 +8730,7 @@
         <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="Y27" t="s">
         <v>103</v>
@@ -5706,7 +8747,7 @@
         <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s">
         <v>315</v>
@@ -5721,6 +8762,9 @@
       </c>
       <c r="G29" t="s">
         <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
       </c>
       <c r="Y29" t="s">
         <v>104</v>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1742,13 +1742,16 @@
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="152" x14ac:knownFonts="1">
+  <fonts count="168" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2711,8 +2714,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="273">
+  <fills count="303">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4255,8 +4359,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="282">
     <border>
       <left/>
       <right/>
@@ -6817,13 +7091,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7277,52 +7833,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="245" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="245" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="248" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="248" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="251" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="251" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="254" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="254" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="260" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="260" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="263" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="263" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="266" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="266" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="266" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="266" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="254" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="254" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="275" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="278" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="281" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="284" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="290" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="293" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="296" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="296" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="302" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7824,7 +8428,7 @@
         <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="E3" t="s">
         <v>444</v>
@@ -7907,7 +8511,7 @@
         <v>362</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -7990,7 +8594,7 @@
         <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E5" t="s">
         <v>445</v>
@@ -8059,6 +8663,9 @@
       </c>
       <c r="B6" t="s">
         <v>364</v>
+      </c>
+      <c r="D6" t="s">
+        <v>490</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6971" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1745,13 +1745,16 @@
   <si>
     <t>purgeQueue(profile,queue,var)</t>
   </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="168" x14ac:knownFonts="1">
+  <fonts count="200" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2815,8 +2818,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="303">
+  <fills count="363">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4529,8 +4734,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="282">
+  <borders count="338">
     <border>
       <left/>
       <right/>
@@ -7373,13 +7918,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7881,52 +8990,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="275" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="275" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="278" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="278" fontId="154" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="281" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="281" fontId="155" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="284" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="284" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="290" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="290" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="293" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="293" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="296" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="296" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="296" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="296" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="302" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="305" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="308" fontId="170" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="311" fontId="171" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="314" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="317" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="320" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="323" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="326" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="326" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="329" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="332" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="335" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="338" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="341" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="344" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="350" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="353" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="356" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="356" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="362" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9303,7 +10508,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="Y25" t="s">
         <v>101</v>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -15,17 +15,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -39,14 +39,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6971" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9171" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1748,13 +1749,67 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="200" x14ac:knownFonts="1">
+  <fonts count="264" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3020,8 +3075,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="363">
+  <fills count="471">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5074,8 +5533,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="338">
+  <borders count="466">
     <border>
       <left/>
       <right/>
@@ -8482,13 +9553,1317 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9086,52 +11461,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="332" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="335" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="335" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="338" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="338" fontId="186" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="341" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="341" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="344" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="344" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="347" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="350" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="350" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="353" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="353" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="356" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="356" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="356" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="356" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="344" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="359" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="344" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="362" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="362" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="365" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="368" fontId="202" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="371" fontId="203" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="374" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="380" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="371" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="369" fillId="383" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="369" fillId="383" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="374" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="386" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="374" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="389" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="392" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="395" fontId="218" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="398" fontId="219" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="401" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="407" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="397" fillId="398" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="410" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="410" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="401" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="413" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="401" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="416" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="419" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="422" fontId="234" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="425" fontId="235" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="428" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="425" fillId="434" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="425" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="437" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="437" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="428" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="440" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="428" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="443" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="446" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="449" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="452" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="455" borderId="453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="461" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="452" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="464" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="464" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="470" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9429,7 +11996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -9512,21 +12079,24 @@
         <v>383</v>
       </c>
       <c r="Y1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>400</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -9604,21 +12174,24 @@
         <v>393</v>
       </c>
       <c r="Y2" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>418</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -9689,22 +12262,22 @@
       <c r="X3" t="s">
         <v>394</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>166</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>352</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -9772,22 +12345,22 @@
       <c r="X4" t="s">
         <v>395</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>342</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>162</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>167</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>173</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>410</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9813,6 +12386,9 @@
       <c r="H5" t="s">
         <v>446</v>
       </c>
+      <c r="I5" t="s">
+        <v>556</v>
+      </c>
       <c r="J5" t="s">
         <v>339</v>
       </c>
@@ -9843,22 +12419,22 @@
       <c r="W5" t="s">
         <v>347</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>343</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>163</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>174</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>411</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -9911,22 +12487,22 @@
       <c r="W6" t="s">
         <v>349</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>89</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>431</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>169</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>412</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9946,6 +12522,9 @@
       <c r="H7" t="s">
         <v>433</v>
       </c>
+      <c r="J7" t="s">
+        <v>557</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
@@ -9970,23 +12549,23 @@
       <c r="W7" t="s">
         <v>348</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>432</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>413</v>
       </c>
-      <c r="AD7" t="s">
-        <v>220</v>
+      <c r="AE7" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="8">
@@ -10026,23 +12605,23 @@
       <c r="W8" t="s">
         <v>350</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>164</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>414</v>
       </c>
-      <c r="AD8" t="s">
-        <v>221</v>
+      <c r="AE8" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="9">
@@ -10082,14 +12661,14 @@
       <c r="W9" t="s">
         <v>351</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>198</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
-        <v>222</v>
+      <c r="AE9" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="10">
@@ -10123,14 +12702,14 @@
       <c r="T10" t="s">
         <v>392</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>245</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>179</v>
       </c>
-      <c r="AD10" t="s">
-        <v>460</v>
+      <c r="AE10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11">
@@ -10161,14 +12740,14 @@
       <c r="R11" t="s">
         <v>236</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>246</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>247</v>
       </c>
-      <c r="AD11" t="s">
-        <v>496</v>
+      <c r="AE11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12">
@@ -10188,7 +12767,7 @@
         <v>378</v>
       </c>
       <c r="M12" t="s">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="N12" t="s">
         <v>544</v>
@@ -10199,14 +12778,14 @@
       <c r="R12" t="s">
         <v>237</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>92</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>180</v>
       </c>
-      <c r="AD12" t="s">
-        <v>497</v>
+      <c r="AE12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13">
@@ -10226,7 +12805,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -10234,14 +12813,14 @@
       <c r="R13" t="s">
         <v>242</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>314</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>181</v>
       </c>
-      <c r="AD13" t="s">
-        <v>498</v>
+      <c r="AE13" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="14">
@@ -10261,7 +12840,7 @@
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>458</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
@@ -10269,14 +12848,14 @@
       <c r="R14" t="s">
         <v>238</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>93</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>182</v>
       </c>
-      <c r="AD14" t="s">
-        <v>499</v>
+      <c r="AE14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="15">
@@ -10293,7 +12872,7 @@
         <v>506</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
         <v>491</v>
@@ -10301,14 +12880,14 @@
       <c r="R15" t="s">
         <v>239</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>94</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>183</v>
       </c>
-      <c r="AD15" t="s">
-        <v>461</v>
+      <c r="AE15" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16">
@@ -10325,7 +12904,7 @@
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
         <v>492</v>
@@ -10333,14 +12912,14 @@
       <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>184</v>
       </c>
-      <c r="AD16" t="s">
-        <v>500</v>
+      <c r="AE16" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="17">
@@ -10356,14 +12935,17 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
         <v>493</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>453</v>
       </c>
-      <c r="AD17" t="s">
-        <v>501</v>
+      <c r="AE17" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="18">
@@ -10379,11 +12961,11 @@
       <c r="K18" t="s">
         <v>449</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>95</v>
       </c>
-      <c r="AD18" t="s">
-        <v>502</v>
+      <c r="AE18" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="19">
@@ -10399,11 +12981,11 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>96</v>
       </c>
-      <c r="AD19" t="s">
-        <v>223</v>
+      <c r="AE19" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="20">
@@ -10419,11 +13001,11 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>97</v>
       </c>
-      <c r="AD20" t="s">
-        <v>224</v>
+      <c r="AE20" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="21">
@@ -10431,7 +13013,7 @@
         <v>398</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>568</v>
       </c>
       <c r="G21" t="s">
         <v>286</v>
@@ -10439,11 +13021,11 @@
       <c r="K21" t="s">
         <v>368</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>98</v>
       </c>
-      <c r="AD21" t="s">
-        <v>225</v>
+      <c r="AE21" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="22">
@@ -10451,7 +13033,7 @@
         <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>287</v>
@@ -10459,8 +13041,11 @@
       <c r="K22" t="s">
         <v>456</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>485</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -10468,7 +13053,7 @@
         <v>345</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
         <v>278</v>
@@ -10476,8 +13061,11 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>99</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="24">
@@ -10485,7 +13073,7 @@
         <v>383</v>
       </c>
       <c r="E24" t="s">
-        <v>435</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
         <v>267</v>
@@ -10493,16 +13081,19 @@
       <c r="K24" t="s">
         <v>380</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>100</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>435</v>
       </c>
       <c r="G25" t="s">
         <v>67</v>
@@ -10510,16 +13101,19 @@
       <c r="K25" t="s">
         <v>553</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>101</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
         <v>270</v>
@@ -10527,16 +13121,19 @@
       <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>102</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
         <v>254</v>
@@ -10544,16 +13141,19 @@
       <c r="K27" t="s">
         <v>420</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>103</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G28" t="s">
         <v>271</v>
@@ -10561,16 +13161,16 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="G29" t="s">
         <v>272</v>
@@ -10578,106 +13178,112 @@
       <c r="K29" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="G30" t="s">
         <v>205</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
         <v>508</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>248</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>318</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
         <v>295</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
       <c r="G38" t="s">
         <v>296</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>424</v>
       </c>
     </row>
@@ -10685,612 +13291,631 @@
       <c r="G39" t="s">
         <v>255</v>
       </c>
-      <c r="Y39" t="s">
-        <v>381</v>
+      <c r="Z39" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="Y40" t="s">
-        <v>111</v>
+      <c r="Z40" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>201</v>
       </c>
-      <c r="Y41" t="s">
-        <v>112</v>
+      <c r="Z41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>113</v>
+        <v>570</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>114</v>
+        <v>277</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>115</v>
+        <v>288</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>116</v>
+        <v>289</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>425</v>
+        <v>331</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>202</v>
+        <v>330</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>68</v>
+        <v>200</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>117</v>
+        <v>308</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>118</v>
+        <v>327</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>119</v>
+        <v>356</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>467</v>
+        <v>290</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>450</v>
+        <v>344</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>120</v>
+        <v>319</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>334</v>
+        <v>256</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>451</v>
+        <v>280</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>121</v>
+        <v>281</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>122</v>
+        <v>571</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>123</v>
+        <v>282</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>124</v>
+        <v>291</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>125</v>
+        <v>300</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>126</v>
+        <v>325</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>127</v>
+        <v>297</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>426</v>
+        <v>298</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>459</v>
+        <v>357</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>203</v>
+        <v>358</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>377</v>
+        <v>333</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>427</v>
+        <v>301</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>128</v>
+        <v>257</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>129</v>
+        <v>554</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>130</v>
+        <v>302</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>131</v>
+        <v>396</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>186</v>
+        <v>292</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>187</v>
+        <v>397</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>439</v>
+        <v>250</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>452</v>
+        <v>509</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>132</v>
+        <v>332</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>133</v>
+        <v>268</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>134</v>
+        <v>274</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>494</v>
+        <v>279</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>135</v>
+        <v>415</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>136</v>
+        <v>320</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>188</v>
+        <v>258</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>475</v>
+        <v>269</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>189</v>
+        <v>275</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>440</v>
+        <v>264</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>190</v>
+        <v>555</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>191</v>
+        <v>259</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>204</v>
+        <v>276</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>137</v>
+        <v>260</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>192</v>
+        <v>261</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>428</v>
+        <v>293</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>429</v>
+        <v>299</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>266</v>
       </c>
-      <c r="Y94" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -25,7 +25,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -39,13 +39,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9171" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9721" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1803,13 +1803,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="264" x14ac:knownFonts="1">
+  <fonts count="280" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3479,8 +3482,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="471">
+  <fills count="498">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6145,8 +6249,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="466">
+  <borders count="498">
     <border>
       <left/>
       <right/>
@@ -10857,13 +11114,339 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11653,52 +12236,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="443" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="446" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="446" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="449" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="449" fontId="250" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="452" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="452" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="455" borderId="453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="453" fillId="455" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="461" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="461" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="452" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="452" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="464" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="464" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="464" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="464" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="455" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="467" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="455" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="470" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="470" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="473" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="476" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="479" borderId="481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="482" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="488" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="479" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="491" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="491" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="494" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="497" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11996,7 +12627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -12079,24 +12710,21 @@
         <v>383</v>
       </c>
       <c r="Y1" t="s">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="AD1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12174,24 +12802,21 @@
         <v>393</v>
       </c>
       <c r="Y2" t="s">
-        <v>569</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AB2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
       <c r="AD2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12262,22 +12887,22 @@
       <c r="X3" t="s">
         <v>394</v>
       </c>
+      <c r="Y3" t="s">
+        <v>88</v>
+      </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AB3" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="AC3" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12345,22 +12970,22 @@
       <c r="X4" t="s">
         <v>395</v>
       </c>
+      <c r="Y4" t="s">
+        <v>342</v>
+      </c>
       <c r="Z4" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="AA4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AB4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AC4" t="s">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="AD4" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -12419,22 +13044,22 @@
       <c r="W5" t="s">
         <v>347</v>
       </c>
+      <c r="Y5" t="s">
+        <v>343</v>
+      </c>
       <c r="Z5" t="s">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="AA5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AB5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AC5" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="AD5" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -12487,22 +13112,22 @@
       <c r="W6" t="s">
         <v>349</v>
       </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
       <c r="Z6" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="AA6" t="s">
-        <v>431</v>
+        <v>169</v>
       </c>
       <c r="AB6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="AD6" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -12549,22 +13174,22 @@
       <c r="W7" t="s">
         <v>348</v>
       </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
       <c r="Z7" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="AA7" t="s">
-        <v>432</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="AD7" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE7" t="s">
         <v>561</v>
       </c>
     </row>
@@ -12605,22 +13230,22 @@
       <c r="W8" t="s">
         <v>350</v>
       </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
       <c r="Z8" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="AA8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="AD8" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE8" t="s">
         <v>562</v>
       </c>
     </row>
@@ -12661,13 +13286,13 @@
       <c r="W9" t="s">
         <v>351</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>198</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12702,13 +13327,13 @@
       <c r="T10" t="s">
         <v>392</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>245</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>179</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -12740,13 +13365,13 @@
       <c r="R11" t="s">
         <v>236</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>246</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>247</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -12778,13 +13403,13 @@
       <c r="R12" t="s">
         <v>237</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>92</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>180</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -12813,13 +13438,13 @@
       <c r="R13" t="s">
         <v>242</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>314</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>181</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>460</v>
       </c>
     </row>
@@ -12848,13 +13473,13 @@
       <c r="R14" t="s">
         <v>238</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>93</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>182</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -12880,13 +13505,13 @@
       <c r="R15" t="s">
         <v>239</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>94</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>183</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12904,7 +13529,7 @@
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>572</v>
       </c>
       <c r="Q16" t="s">
         <v>492</v>
@@ -12912,13 +13537,13 @@
       <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>184</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -12936,15 +13561,15 @@
         <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" t="s">
         <v>493</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>453</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12961,10 +13586,13 @@
       <c r="K18" t="s">
         <v>449</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="s">
         <v>95</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>461</v>
       </c>
     </row>
@@ -12981,10 +13609,10 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>96</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13001,10 +13629,10 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>97</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -13021,10 +13649,10 @@
       <c r="K21" t="s">
         <v>368</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>98</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13041,10 +13669,10 @@
       <c r="K22" t="s">
         <v>456</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>485</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>223</v>
       </c>
     </row>
@@ -13061,10 +13689,10 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>99</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>564</v>
       </c>
     </row>
@@ -13081,16 +13709,16 @@
       <c r="K24" t="s">
         <v>380</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>100</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>435</v>
@@ -13101,16 +13729,16 @@
       <c r="K25" t="s">
         <v>553</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>101</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>213</v>
@@ -13121,16 +13749,16 @@
       <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>102</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>214</v>
@@ -13141,16 +13769,16 @@
       <c r="K27" t="s">
         <v>420</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>103</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>454</v>
@@ -13161,13 +13789,13 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
         <v>455</v>
@@ -13178,13 +13806,13 @@
       <c r="K29" t="s">
         <v>38</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
         <v>402</v>
@@ -13192,21 +13820,18 @@
       <c r="G30" t="s">
         <v>205</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>215</v>
-      </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13217,7 +13842,7 @@
       <c r="G32" t="s">
         <v>273</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -13228,7 +13853,7 @@
       <c r="G33" t="s">
         <v>508</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>108</v>
       </c>
     </row>
@@ -13239,7 +13864,7 @@
       <c r="G34" t="s">
         <v>248</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>109</v>
       </c>
     </row>
@@ -13250,7 +13875,7 @@
       <c r="G35" t="s">
         <v>318</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13261,7 +13886,7 @@
       <c r="G36" t="s">
         <v>295</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>110</v>
       </c>
     </row>
@@ -13272,7 +13897,7 @@
       <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>326</v>
       </c>
     </row>
@@ -13283,7 +13908,7 @@
       <c r="G38" t="s">
         <v>296</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>424</v>
       </c>
     </row>
@@ -13291,7 +13916,7 @@
       <c r="G39" t="s">
         <v>255</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>559</v>
       </c>
     </row>
@@ -13299,7 +13924,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>381</v>
       </c>
     </row>
@@ -13307,7 +13932,7 @@
       <c r="G41" t="s">
         <v>201</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>111</v>
       </c>
     </row>
@@ -13315,7 +13940,7 @@
       <c r="G42" t="s">
         <v>570</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13323,7 +13948,7 @@
       <c r="G43" t="s">
         <v>277</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>113</v>
       </c>
     </row>
@@ -13331,7 +13956,7 @@
       <c r="G44" t="s">
         <v>288</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>114</v>
       </c>
     </row>
@@ -13339,7 +13964,7 @@
       <c r="G45" t="s">
         <v>289</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>115</v>
       </c>
     </row>
@@ -13347,7 +13972,7 @@
       <c r="G46" t="s">
         <v>331</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>116</v>
       </c>
     </row>
@@ -13355,7 +13980,7 @@
       <c r="G47" t="s">
         <v>330</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>425</v>
       </c>
     </row>
@@ -13363,7 +13988,7 @@
       <c r="G48" t="s">
         <v>200</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13371,7 +13996,7 @@
       <c r="G49" t="s">
         <v>308</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -13379,7 +14004,7 @@
       <c r="G50" t="s">
         <v>327</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>560</v>
       </c>
     </row>
@@ -13387,7 +14012,7 @@
       <c r="G51" t="s">
         <v>356</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>117</v>
       </c>
     </row>
@@ -13395,7 +14020,7 @@
       <c r="G52" t="s">
         <v>290</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>118</v>
       </c>
     </row>
@@ -13403,7 +14028,7 @@
       <c r="G53" t="s">
         <v>344</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13411,7 +14036,7 @@
       <c r="G54" t="s">
         <v>319</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>467</v>
       </c>
     </row>
@@ -13419,7 +14044,7 @@
       <c r="G55" t="s">
         <v>256</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>450</v>
       </c>
     </row>
@@ -13427,7 +14052,7 @@
       <c r="G56" t="s">
         <v>280</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13435,7 +14060,7 @@
       <c r="G57" t="s">
         <v>281</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13443,7 +14068,7 @@
       <c r="G58" t="s">
         <v>571</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>451</v>
       </c>
     </row>
@@ -13451,7 +14076,7 @@
       <c r="G59" t="s">
         <v>282</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13459,7 +14084,7 @@
       <c r="G60" t="s">
         <v>291</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13467,7 +14092,7 @@
       <c r="G61" t="s">
         <v>300</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13475,7 +14100,7 @@
       <c r="G62" t="s">
         <v>325</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13483,7 +14108,7 @@
       <c r="G63" t="s">
         <v>297</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13491,7 +14116,7 @@
       <c r="G64" t="s">
         <v>298</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13499,7 +14124,7 @@
       <c r="G65" t="s">
         <v>357</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13507,7 +14132,7 @@
       <c r="G66" t="s">
         <v>358</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>426</v>
       </c>
     </row>
@@ -13515,7 +14140,7 @@
       <c r="G67" t="s">
         <v>333</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>459</v>
       </c>
     </row>
@@ -13523,7 +14148,7 @@
       <c r="G68" t="s">
         <v>301</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13531,7 +14156,7 @@
       <c r="G69" t="s">
         <v>257</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>377</v>
       </c>
     </row>
@@ -13539,7 +14164,7 @@
       <c r="G70" t="s">
         <v>554</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>427</v>
       </c>
     </row>
@@ -13547,7 +14172,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>128</v>
       </c>
     </row>
@@ -13555,7 +14180,7 @@
       <c r="G72" t="s">
         <v>396</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>129</v>
       </c>
     </row>
@@ -13563,7 +14188,7 @@
       <c r="G73" t="s">
         <v>292</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13571,7 +14196,7 @@
       <c r="G74" t="s">
         <v>397</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>131</v>
       </c>
     </row>
@@ -13579,7 +14204,7 @@
       <c r="G75" t="s">
         <v>250</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>186</v>
       </c>
     </row>
@@ -13587,7 +14212,7 @@
       <c r="G76" t="s">
         <v>509</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>187</v>
       </c>
     </row>
@@ -13595,7 +14220,7 @@
       <c r="G77" t="s">
         <v>332</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>439</v>
       </c>
     </row>
@@ -13603,7 +14228,7 @@
       <c r="G78" t="s">
         <v>268</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>452</v>
       </c>
     </row>
@@ -13611,7 +14236,7 @@
       <c r="G79" t="s">
         <v>274</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>132</v>
       </c>
     </row>
@@ -13619,7 +14244,7 @@
       <c r="G80" t="s">
         <v>279</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>133</v>
       </c>
     </row>
@@ -13627,7 +14252,7 @@
       <c r="G81" t="s">
         <v>415</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>134</v>
       </c>
     </row>
@@ -13635,7 +14260,7 @@
       <c r="G82" t="s">
         <v>320</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>494</v>
       </c>
     </row>
@@ -13643,7 +14268,7 @@
       <c r="G83" t="s">
         <v>258</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>135</v>
       </c>
     </row>
@@ -13651,7 +14276,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13659,7 +14284,7 @@
       <c r="G85" t="s">
         <v>275</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>188</v>
       </c>
     </row>
@@ -13667,7 +14292,7 @@
       <c r="G86" t="s">
         <v>264</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>475</v>
       </c>
     </row>
@@ -13675,7 +14300,7 @@
       <c r="G87" t="s">
         <v>555</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>189</v>
       </c>
     </row>
@@ -13683,7 +14308,7 @@
       <c r="G88" t="s">
         <v>259</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13691,7 +14316,7 @@
       <c r="G89" t="s">
         <v>276</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>190</v>
       </c>
     </row>
@@ -13699,7 +14324,7 @@
       <c r="G90" t="s">
         <v>260</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13707,7 +14332,7 @@
       <c r="G91" t="s">
         <v>261</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13715,7 +14340,7 @@
       <c r="G92" t="s">
         <v>293</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13723,7 +14348,7 @@
       <c r="G93" t="s">
         <v>299</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>192</v>
       </c>
     </row>
@@ -13731,7 +14356,7 @@
       <c r="G94" t="s">
         <v>283</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>428</v>
       </c>
     </row>
@@ -13739,7 +14364,7 @@
       <c r="G95" t="s">
         <v>328</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>429</v>
       </c>
     </row>
@@ -13747,7 +14372,7 @@
       <c r="G96" t="s">
         <v>265</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>193</v>
       </c>
     </row>
@@ -13755,167 +14380,167 @@
       <c r="G97" t="s">
         <v>266</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -19,7 +19,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9721" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11385" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1806,13 +1806,31 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="280" x14ac:knownFonts="1">
+  <fonts count="328" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3583,8 +3601,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="498">
+  <fills count="579">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6402,8 +6723,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="498">
+  <borders count="594">
     <border>
       <left/>
       <right/>
@@ -11440,13 +12220,991 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="341">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12284,52 +14042,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="470" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="473" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="473" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="476" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="476" fontId="266" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="479" borderId="481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="481" fillId="479" fontId="267" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="482" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="482" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="488" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="488" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="479" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="479" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="491" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="491" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="491" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="491" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="482" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="494" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="494" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="482" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="497" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="500" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="509" fillId="503" fontId="282" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="506" fontId="283" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="509" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="515" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="506" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="518" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="518" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="509" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="521" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="509" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="524" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="537" fillId="527" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="530" fontId="298" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="533" fontId="299" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="536" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="539" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="542" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="533" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="545" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="545" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="536" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="548" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="536" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="551" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="554" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="557" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="560" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="563" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="569" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="560" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="572" borderId="593" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="572" borderId="593" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="563" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="563" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="578" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12627,7 +14529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -13006,7 +14908,7 @@
         <v>419</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>576</v>
       </c>
       <c r="H5" t="s">
         <v>446</v>
@@ -13080,7 +14982,7 @@
         <v>503</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
         <v>434</v>
@@ -13142,7 +15044,7 @@
         <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="H7" t="s">
         <v>433</v>
@@ -13204,7 +15106,7 @@
         <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H8" t="s">
         <v>316</v>
@@ -13260,7 +15162,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="H9" t="s">
         <v>317</v>
@@ -13304,7 +15206,7 @@
         <v>303</v>
       </c>
       <c r="G10" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
         <v>438</v>
@@ -13345,7 +15247,7 @@
         <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
         <v>310</v>
@@ -13383,7 +15285,7 @@
         <v>307</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H12" t="s">
         <v>311</v>
@@ -13421,7 +15323,7 @@
         <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
         <v>312</v>
@@ -13456,7 +15358,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -13491,7 +15393,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15" t="s">
         <v>506</v>
@@ -13523,7 +15425,7 @@
         <v>373</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
@@ -13555,7 +15457,7 @@
         <v>374</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
@@ -13581,7 +15483,7 @@
         <v>401</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>449</v>
@@ -13604,7 +15506,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -13624,7 +15526,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -13644,7 +15546,7 @@
         <v>568</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K21" t="s">
         <v>368</v>
@@ -13664,7 +15566,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K22" t="s">
         <v>456</v>
@@ -13684,7 +15586,7 @@
         <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
@@ -13704,13 +15606,13 @@
         <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K24" t="s">
         <v>380</v>
       </c>
       <c r="Y24" t="s">
-        <v>100</v>
+        <v>573</v>
       </c>
       <c r="AD24" t="s">
         <v>565</v>
@@ -13724,13 +15626,13 @@
         <v>435</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s">
         <v>553</v>
       </c>
       <c r="Y25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD25" t="s">
         <v>566</v>
@@ -13744,13 +15646,13 @@
         <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD26" t="s">
         <v>224</v>
@@ -13764,13 +15666,13 @@
         <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
         <v>420</v>
       </c>
       <c r="Y27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD27" t="s">
         <v>225</v>
@@ -13784,13 +15686,13 @@
         <v>454</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -13801,13 +15703,13 @@
         <v>455</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
       </c>
       <c r="Y29" t="s">
-        <v>104</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30">
@@ -13818,10 +15720,10 @@
         <v>402</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -13829,10 +15731,10 @@
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="Y31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -13840,10 +15742,10 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="Y32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -13851,10 +15753,10 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>508</v>
+        <v>273</v>
       </c>
       <c r="Y33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -13862,10 +15764,10 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>508</v>
       </c>
       <c r="Y34" t="s">
-        <v>109</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35">
@@ -13873,10 +15775,10 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="Y35" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -13884,10 +15786,10 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="Y36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -13895,10 +15797,10 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
@@ -13906,641 +15808,669 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s">
-        <v>424</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s">
-        <v>559</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>111</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>570</v>
+        <v>201</v>
       </c>
       <c r="Y42" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>277</v>
+        <v>570</v>
       </c>
       <c r="Y43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Y44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="Y46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y47" t="s">
-        <v>425</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Y48" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="Y49" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="Y50" t="s">
-        <v>560</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="Y51" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="Y52" t="s">
-        <v>118</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="Y53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="Y54" t="s">
-        <v>467</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="Y55" t="s">
-        <v>450</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="Y56" t="s">
-        <v>120</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y57" t="s">
-        <v>334</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>571</v>
+        <v>281</v>
       </c>
       <c r="Y58" t="s">
-        <v>451</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>282</v>
+        <v>571</v>
       </c>
       <c r="Y59" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Y60" t="s">
-        <v>122</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Y61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="Y62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="Y63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="Y65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y66" t="s">
-        <v>426</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="Y67" t="s">
-        <v>459</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="Y68" t="s">
-        <v>203</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="Y69" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>554</v>
+        <v>257</v>
       </c>
       <c r="Y70" t="s">
-        <v>427</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>554</v>
       </c>
       <c r="Y71" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="Y72" t="s">
-        <v>129</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="Y73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="Y74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>250</v>
+        <v>397</v>
       </c>
       <c r="Y75" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>509</v>
+        <v>250</v>
       </c>
       <c r="Y76" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>332</v>
+        <v>509</v>
       </c>
       <c r="Y77" t="s">
-        <v>439</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="Y78" t="s">
-        <v>452</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y79" t="s">
-        <v>132</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Y80" t="s">
-        <v>133</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>415</v>
+        <v>279</v>
       </c>
       <c r="Y81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="Y82" t="s">
-        <v>494</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="Y83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Y84" t="s">
-        <v>136</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y85" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Y86" t="s">
-        <v>475</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>555</v>
+        <v>264</v>
       </c>
       <c r="Y87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>259</v>
+        <v>555</v>
       </c>
       <c r="Y88" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="Y89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Y90" t="s">
-        <v>191</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="Y92" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y93" t="s">
-        <v>192</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="Y94" t="s">
-        <v>428</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Y95" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="Y96" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>266</v>
       </c>
-      <c r="Y97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>196</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>507</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>536</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>537</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>371</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>139</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>430</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>155</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>156</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -15,39 +15,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11385" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12505" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1824,13 +1825,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="328" x14ac:knownFonts="1">
+  <fonts count="360" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3904,8 +3923,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="579">
+  <fills count="633">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7182,8 +7403,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="594">
+  <borders count="658">
     <border>
       <left/>
       <right/>
@@ -10412,6 +10939,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -13204,7 +14383,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="373">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14186,52 +15365,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="551" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="554" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="554" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="557" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="557" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="560" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="560" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="563" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="563" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="566" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="569" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="569" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="560" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="560" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="572" borderId="593" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="593" fillId="572" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="572" borderId="593" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="593" fillId="572" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="563" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="563" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="575" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="563" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="563" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="578" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="578" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="581" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="584" fontId="330" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="587" fontId="331" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="590" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="596" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="621" fillId="587" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="599" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="599" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="590" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="602" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="590" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="605" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="608" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="611" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="614" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="623" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="614" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="626" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="626" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="632" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14529,7 +15804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -14552,81 +15827,84 @@
         <v>486</v>
       </c>
       <c r="E1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>321</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>538</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>243</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>227</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>382</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>399</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>345</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>383</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>400</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -14644,81 +15922,84 @@
         <v>487</v>
       </c>
       <c r="E2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>436</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>447</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>303</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>372</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>421</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>539</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>464</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>403</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>416</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>241</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>206</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>384</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>405</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>369</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>393</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>418</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14735,76 +16016,76 @@
       <c r="D3" t="s">
         <v>552</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>444</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>353</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>462</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>337</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>329</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>322</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>540</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>465</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>417</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>228</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>207</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>385</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>407</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>370</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>394</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>166</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>352</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14818,82 +16099,82 @@
       <c r="D4" t="s">
         <v>488</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>375</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>437</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>463</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>338</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>226</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>323</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>541</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>466</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>229</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>208</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>386</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>408</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>346</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>395</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>342</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>162</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>167</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>173</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>410</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>579</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -14901,73 +16182,73 @@
       <c r="D5" t="s">
         <v>489</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>445</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>419</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>576</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>446</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>556</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>339</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>448</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>551</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>230</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>209</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>387</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>409</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>347</v>
       </c>
-      <c r="Y5" t="s">
-        <v>343</v>
-      </c>
       <c r="Z5" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA5" t="s">
         <v>163</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>174</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>411</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>364</v>
@@ -14975,1502 +16256,1510 @@
       <c r="D6" t="s">
         <v>490</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>503</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>324</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>434</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>336</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>545</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>23</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>231</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>379</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>388</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>349</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>89</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>431</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>169</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>412</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>365</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>212</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>376</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>433</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>557</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>303</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>546</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>232</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>389</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>348</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>432</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>413</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>366</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>306</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>354</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>316</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>504</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>547</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>82</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>233</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>390</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>350</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>164</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>414</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>367</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>355</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>317</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>71</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>550</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>83</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>234</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>391</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>351</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>198</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>303</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>294</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>438</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>542</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>423</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>235</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>392</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>245</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>179</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H11" t="s">
         <v>340</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>310</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>505</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>457</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>543</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>84</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>236</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>246</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>247</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>307</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>262</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>311</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>378</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>558</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>544</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>33</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>237</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>92</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>180</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" t="s">
         <v>329</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>251</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>312</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>422</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>85</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>242</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>314</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>181</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>538</v>
-      </c>
-      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>304</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>313</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>458</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>86</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>238</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>93</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>182</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" t="s">
+        <v>538</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>252</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>506</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>491</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>239</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>94</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>183</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" t="s">
         <v>373</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>253</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>72</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>572</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>492</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>240</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>184</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="s">
         <v>374</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>305</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>73</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>493</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>453</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>401</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>449</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>95</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>96</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
-      </c>
-      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>284</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>97</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" t="s">
         <v>568</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>285</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>368</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>98</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>399</v>
-      </c>
-      <c r="E22" t="s">
+        <v>398</v>
+      </c>
+      <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>286</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>456</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>485</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" t="s">
         <v>309</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>287</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>99</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>383</v>
-      </c>
-      <c r="E24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>278</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>380</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>573</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" t="s">
         <v>435</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>267</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>553</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>100</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
         <v>213</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>101</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>214</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>270</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>420</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>102</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>454</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>254</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>400</v>
-      </c>
-      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
         <v>455</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>271</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" t="s">
+        <v>402</v>
+      </c>
+      <c r="H30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>215</v>
       </c>
-      <c r="E30" t="s">
-        <v>402</v>
-      </c>
-      <c r="G30" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>205</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>263</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>273</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>508</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>59</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>248</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>318</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>61</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>295</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>249</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39">
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>296</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>255</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" t="s">
-        <v>559</v>
+      <c r="Z41" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>201</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>570</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>277</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>288</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>289</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>331</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>330</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>200</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>308</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>327</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>356</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>290</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>344</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>319</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>256</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>280</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>281</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>571</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>282</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>291</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>300</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>325</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>297</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>298</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>357</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>358</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>333</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>301</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>257</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>554</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>302</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>396</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>292</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>397</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>250</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>509</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>332</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>268</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>274</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>279</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>415</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>320</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>258</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>269</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>275</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>264</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>555</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>259</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>276</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>260</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>261</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>293</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>299</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>283</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>328</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>265</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>266</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -15,7 +15,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -23,7 +23,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12505" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13628" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1843,13 +1843,28 @@
   <si>
     <t>assertTextNotContain(locator,text)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="360" x14ac:knownFonts="1">
+  <fonts count="392" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4125,8 +4140,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="633">
+  <fills count="687">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7709,8 +7926,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="658">
+  <borders count="722">
     <border>
       <left/>
       <right/>
@@ -10939,6 +11462,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14383,7 +15558,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="405">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15461,52 +16636,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="605" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="608" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="608" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="611" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="611" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="614" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="614" fontId="347" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="617" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="620" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="623" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="649" fillId="623" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="614" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="614" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="626" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="626" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="626" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="626" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="617" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="629" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="617" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="632" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="632" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="635" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="638" fontId="362" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="641" fontId="363" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="677" fillId="644" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="647" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="650" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="685" fillId="641" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="653" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="653" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="644" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="656" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="644" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="659" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="662" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="665" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="668" borderId="705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="671" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="677" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="668" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="680" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="680" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="686" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16118,7 +17389,7 @@
         <v>338</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>588</v>
       </c>
       <c r="M4" t="s">
         <v>323</v>
@@ -16154,7 +17425,7 @@
         <v>395</v>
       </c>
       <c r="Z4" t="s">
-        <v>342</v>
+        <v>589</v>
       </c>
       <c r="AA4" t="s">
         <v>162</v>
@@ -16201,7 +17472,7 @@
         <v>339</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>226</v>
       </c>
       <c r="N5" t="s">
         <v>78</v>
@@ -16272,7 +17543,7 @@
         <v>336</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -16334,7 +17605,7 @@
         <v>557</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
         <v>303</v>
@@ -16393,7 +17664,7 @@
         <v>316</v>
       </c>
       <c r="L8" t="s">
-        <v>504</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
@@ -16449,7 +17720,7 @@
         <v>317</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>504</v>
       </c>
       <c r="N9" t="s">
         <v>27</v>
@@ -16493,7 +17764,7 @@
         <v>438</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -16534,7 +17805,7 @@
         <v>310</v>
       </c>
       <c r="L11" t="s">
-        <v>505</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
         <v>457</v>
@@ -16572,7 +17843,7 @@
         <v>311</v>
       </c>
       <c r="L12" t="s">
-        <v>378</v>
+        <v>505</v>
       </c>
       <c r="N12" t="s">
         <v>558</v>
@@ -16610,7 +17881,7 @@
         <v>312</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="N13" t="s">
         <v>422</v>
@@ -16645,7 +17916,7 @@
         <v>313</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>458</v>
@@ -16677,7 +17948,7 @@
         <v>252</v>
       </c>
       <c r="L15" t="s">
-        <v>506</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -16709,7 +17980,7 @@
         <v>253</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="N16" t="s">
         <v>572</v>
@@ -16741,7 +18012,7 @@
         <v>305</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
         <v>32</v>
@@ -16767,7 +18038,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
@@ -16784,13 +18055,13 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>587</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>449</v>
       </c>
       <c r="Z19" t="s">
         <v>96</v>
@@ -16804,13 +18075,13 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>284</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
         <v>97</v>
@@ -16824,13 +18095,13 @@
         <v>382</v>
       </c>
       <c r="F21" t="s">
-        <v>568</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
         <v>285</v>
       </c>
       <c r="L21" t="s">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s">
         <v>98</v>
@@ -16844,13 +18115,13 @@
         <v>398</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>568</v>
       </c>
       <c r="H22" t="s">
         <v>286</v>
       </c>
       <c r="L22" t="s">
-        <v>456</v>
+        <v>586</v>
       </c>
       <c r="Z22" t="s">
         <v>485</v>
@@ -16864,13 +18135,13 @@
         <v>399</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>287</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>456</v>
       </c>
       <c r="Z23" t="s">
         <v>99</v>
@@ -16884,13 +18155,13 @@
         <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
       </c>
       <c r="L24" t="s">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="s">
         <v>573</v>
@@ -16904,13 +18175,13 @@
         <v>383</v>
       </c>
       <c r="F25" t="s">
-        <v>435</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>553</v>
+        <v>380</v>
       </c>
       <c r="Z25" t="s">
         <v>100</v>
@@ -16924,13 +18195,13 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>435</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
+        <v>553</v>
       </c>
       <c r="Z26" t="s">
         <v>101</v>
@@ -16944,13 +18215,13 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H27" t="s">
         <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s">
         <v>102</v>
@@ -16964,13 +18235,13 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
         <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="Z28" t="s">
         <v>103</v>
@@ -16981,13 +18252,13 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H29" t="s">
         <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s">
         <v>315</v>
@@ -16998,10 +18269,13 @@
         <v>400</v>
       </c>
       <c r="F30" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="H30" t="s">
         <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>38</v>
       </c>
       <c r="Z30" t="s">
         <v>104</v>
@@ -17012,7 +18286,7 @@
         <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="H31" t="s">
         <v>205</v>
@@ -17023,7 +18297,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>263</v>
@@ -17034,7 +18308,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>273</v>
@@ -17045,7 +18319,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>508</v>
@@ -17056,7 +18330,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>248</v>
@@ -17067,7 +18341,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>318</v>
@@ -17078,7 +18352,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>295</v>
@@ -17089,7 +18363,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>249</v>
@@ -17099,6 +18373,9 @@
       </c>
     </row>
     <row r="39">
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
         <v>296</v>
       </c>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -15,13 +15,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13628" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14192" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1858,13 +1858,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="392" x14ac:knownFonts="1">
+  <fonts count="408" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4342,8 +4351,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="687">
+  <fills count="714">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8232,8 +8342,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="722">
+  <borders count="754">
     <border>
       <left/>
       <right/>
@@ -11462,6 +11725,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15558,7 +16147,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="421">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16732,52 +17321,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="659" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="662" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="662" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="665" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="665" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="668" borderId="705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="705" fillId="668" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="671" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="671" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="674" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="677" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="713" fillId="677" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="668" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="668" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="680" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="721" fillId="680" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="680" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="721" fillId="680" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="671" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="683" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="671" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="671" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="686" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="686" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="689" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="692" borderId="733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="695" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="698" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="701" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="704" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="695" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="707" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="707" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="710" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="713" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17075,7 +17712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -17539,6 +18176,9 @@
       <c r="I6" t="s">
         <v>434</v>
       </c>
+      <c r="J6" t="s">
+        <v>590</v>
+      </c>
       <c r="K6" t="s">
         <v>336</v>
       </c>
@@ -18055,7 +18695,7 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>587</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -18075,7 +18715,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>284</v>
@@ -18095,7 +18735,7 @@
         <v>382</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>568</v>
       </c>
       <c r="H21" t="s">
         <v>285</v>
@@ -18115,7 +18755,7 @@
         <v>398</v>
       </c>
       <c r="F22" t="s">
-        <v>568</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
         <v>286</v>
@@ -18135,7 +18775,7 @@
         <v>399</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
         <v>287</v>
@@ -18155,7 +18795,7 @@
         <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
@@ -18175,7 +18815,7 @@
         <v>383</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>435</v>
       </c>
       <c r="H25" t="s">
         <v>267</v>
@@ -18195,7 +18835,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -18215,7 +18855,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
         <v>270</v>
@@ -18235,7 +18875,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>454</v>
       </c>
       <c r="H28" t="s">
         <v>254</v>
@@ -18252,7 +18892,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H29" t="s">
         <v>271</v>
@@ -18269,7 +18909,7 @@
         <v>400</v>
       </c>
       <c r="F30" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="H30" t="s">
         <v>272</v>
@@ -18286,7 +18926,7 @@
         <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
         <v>205</v>
@@ -18297,7 +18937,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>263</v>
@@ -18308,7 +18948,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
         <v>273</v>
@@ -18319,7 +18959,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
         <v>508</v>
@@ -18330,7 +18970,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>248</v>
@@ -18341,7 +18981,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>318</v>
@@ -18352,7 +18992,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>295</v>
@@ -18363,7 +19003,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>249</v>
@@ -18373,9 +19013,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
       <c r="H39" t="s">
         <v>296</v>
       </c>
@@ -18857,186 +19494,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>429</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>193</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>507</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>581</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>138</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>371</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>139</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>140</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>430</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>575</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>154</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14192" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14756" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1873,7 +1873,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="408" x14ac:knownFonts="1">
+  <fonts count="424" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4452,8 +4452,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="714">
+  <fills count="741">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8495,8 +8596,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="754">
+  <borders count="786">
     <border>
       <left/>
       <right/>
@@ -11725,6 +11979,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16147,7 +16727,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17369,52 +17949,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="686" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="689" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="689" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="692" borderId="733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="733" fillId="692" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="695" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="737" fillId="695" fontId="395" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="698" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="741" fillId="698" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="701" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="701" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="704" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="704" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="695" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="749" fillId="695" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="707" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="753" fillId="707" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="707" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="753" fillId="707" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="698" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="710" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="710" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="698" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="698" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="713" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="716" borderId="761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="719" borderId="765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="722" borderId="769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="725" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="731" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="722" borderId="781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="734" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="734" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="740" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/macros/artifact/script/MacroLibrary.xlsx
+++ b/examples/macros/artifact/script/MacroLibrary.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14756" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15320" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1873,7 +1873,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="424" x14ac:knownFonts="1">
+  <fonts count="440" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4553,8 +4553,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="741">
+  <fills count="768">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8749,8 +8850,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="786">
+  <borders count="818">
     <border>
       <left/>
       <right/>
@@ -11979,6 +12233,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16727,7 +17307,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="453">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17997,52 +18577,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="713" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="716" borderId="761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="761" fillId="716" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="719" borderId="765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="765" fillId="719" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="722" borderId="769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="769" fillId="722" fontId="411" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="725" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="725" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="728" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="731" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="777" fillId="731" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="722" borderId="781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="781" fillId="722" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="734" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="734" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="734" borderId="785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="734" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="725" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="737" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="725" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="740" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="740" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="743" borderId="793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="746" borderId="797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="749" borderId="801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="752" borderId="805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="755" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="758" borderId="809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="749" borderId="813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="761" borderId="817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="761" borderId="817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="752" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="752" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="767" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
